--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14FDCE-2B34-4471-97D3-FCC286865C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DB43C5-FB18-4FBD-8F12-254DC4319B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>PUNTA DE CAUTIN</t>
+  </si>
+  <si>
+    <t>2 BROCAS</t>
+  </si>
+  <si>
+    <t>TRASTE PARA GUARDAR COSAS</t>
   </si>
 </sst>
 </file>
@@ -573,13 +582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="72.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -596,21 +605,33 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="14">
+        <v>45819</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -674,7 +695,7 @@
       </c>
       <c r="C16" s="4">
         <f>SUM(C2:C15)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -870,7 +891,7 @@
       </c>
       <c r="C50" s="4">
         <f>C16+C27+C38+C49</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DB43C5-FB18-4FBD-8F12-254DC4319B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04CD5FF-A029-4392-A083-6108186D21EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -91,16 +91,24 @@
   <si>
     <t>TRASTE PARA GUARDAR COSAS</t>
   </si>
+  <si>
+    <t>SENSOR ULTRASONICO</t>
+  </si>
+  <si>
+    <t>SENSOR DE OBSTACULOS INFRARROJOS</t>
+  </si>
+  <si>
+    <t>MOTOR DE 1-6 VOLTIOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;Q&quot;#,##0.00;[Red]\-&quot;Q&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="m/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,15 +133,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -249,9 +253,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -270,10 +271,19 @@
     <xf numFmtId="8" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,316 +592,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="72.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>45819</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12">
+        <v>45727</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SUM(C2:C4)</f>
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="12">
+        <v>45730</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SUM(C6:C8)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
-        <f>SUM(C2:C15)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="C20" s="3">
+        <f>SUM(C10:C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4">
-        <f>SUM(C17:C26)</f>
+      <c r="C28" s="3">
+        <f>SUM(C21:C27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="13"/>
-    </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(C29:C33)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="4">
-        <f>SUM(C28:C37)</f>
+      <c r="C41" s="3">
+        <f>SUM(C35:C40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="4">
-        <f>SUM(C39:C48)</f>
+      <c r="C49" s="3">
+        <f>SUM(C42:C48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="4">
-        <f>C16+C27+C38+C49</f>
-        <v>98</v>
+      <c r="C50" s="16">
+        <f>C5+C9+C20+C49+C28+C34+C41</f>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04CD5FF-A029-4392-A083-6108186D21EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168FEB52-299F-4800-9962-4001E91E8EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -80,9 +80,6 @@
     <t>----</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>PUNTA DE CAUTIN</t>
   </si>
   <si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>MOTOR DE 1-6 VOLTIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 FOTORRESISTENCIA LDR </t>
+  </si>
+  <si>
+    <t>5 METROS DE ESTAÑO</t>
+  </si>
+  <si>
+    <t>ACIDO, FOTORRESISTENCIA Y OTROS</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -619,7 +625,7 @@
         <v>45727</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10">
         <v>50</v>
@@ -628,7 +634,7 @@
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>18</v>
@@ -637,7 +643,7 @@
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>30</v>
@@ -655,10 +661,10 @@
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>45730</v>
+        <v>45729</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="11">
         <v>27</v>
@@ -667,7 +673,7 @@
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>18</v>
@@ -676,7 +682,7 @@
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>15</v>
@@ -693,36 +699,59 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="12">
+        <v>45730</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11">
+        <v>33.700000000000003</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(C10:C13)</f>
+        <v>86.2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -731,45 +760,45 @@
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <f>SUM(C10:C19)</f>
-        <v>0</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <f>SUM(C15:C21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -797,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="3">
-        <f>SUM(C21:C27)</f>
+        <f>SUM(C23:C27)</f>
         <v>0</v>
       </c>
     </row>
@@ -830,25 +859,25 @@
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="3">
-        <f>SUM(C29:C33)</f>
+      <c r="C35" s="3">
+        <f>SUM(C29:C34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -872,69 +901,32 @@
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
-        <f>SUM(C35:C40)</f>
-        <v>0</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <f>SUM(C36:C42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="3">
-        <f>SUM(C42:C48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="16">
-        <f>C5+C9+C20+C49+C28+C34+C41</f>
-        <v>158</v>
+      <c r="C44" s="16">
+        <f>C5+C9+C14+C43+C22+C28+C35</f>
+        <v>244.2</v>
       </c>
     </row>
   </sheetData>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168FEB52-299F-4800-9962-4001E91E8EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92147596-CABB-4B12-86E8-CCDD8662481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>ACIDO, FOTORRESISTENCIA Y OTROS</t>
+  </si>
+  <si>
+    <t>3M DE ALAMBRE ROJO PARA PROTOBOARD</t>
+  </si>
+  <si>
+    <t>1 FOTORESISTENCIAS</t>
+  </si>
+  <si>
+    <t>1M TERMOCOGIBLE</t>
+  </si>
+  <si>
+    <t>10 RESISTENCIAS 330</t>
+  </si>
+  <si>
+    <t>5M DE ALAMBRE NEGRO</t>
   </si>
 </sst>
 </file>
@@ -596,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -747,58 +762,82 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="12">
+        <v>45733</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(C15:C20)</f>
+        <v>38.75</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <f>SUM(C15:C21)</f>
-        <v>0</v>
-      </c>
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -817,25 +856,25 @@
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM(C22:C26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <f>SUM(C23:C27)</f>
-        <v>0</v>
-      </c>
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -859,25 +898,25 @@
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(C28:C33)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
-        <f>SUM(C29:C34)</f>
-        <v>0</v>
-      </c>
+      <c r="A35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -906,27 +945,22 @@
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUM(C35:C41)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3">
-        <f>SUM(C36:C42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="16">
-        <f>C5+C9+C14+C43+C22+C28+C35</f>
-        <v>244.2</v>
+      <c r="C43" s="16">
+        <f>C5+C9+C14+C42+C21+C27+C34</f>
+        <v>282.95</v>
       </c>
     </row>
   </sheetData>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92147596-CABB-4B12-86E8-CCDD8662481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D69CA-7B00-43A4-8CE1-4C7D9FAADF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>5M DE ALAMBRE NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Teclado </t>
+  </si>
+  <si>
+    <t>4 metros de cable</t>
+  </si>
+  <si>
+    <t>6 CABLES DUPONT 10CM</t>
   </si>
 </sst>
 </file>
@@ -611,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -828,48 +837,60 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="12">
+        <v>45736</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUM(C22:C24)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <f>SUM(C22:C26)</f>
-        <v>0</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
@@ -888,30 +909,30 @@
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(C26:C31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3">
-        <f>SUM(C28:C33)</f>
-        <v>0</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -935,32 +956,22 @@
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <f>SUM(C33:C39)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUM(C35:C41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="16">
-        <f>C5+C9+C14+C42+C21+C27+C34</f>
-        <v>282.95</v>
+      <c r="C41" s="16">
+        <f>C5+C9+C14+C40+C21+C25+C32</f>
+        <v>308.95</v>
       </c>
     </row>
   </sheetData>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D69CA-7B00-43A4-8CE1-4C7D9FAADF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5780E957-8FC6-4197-B638-91C835B220CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -876,8 +876,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>6</v>
+      <c r="A26" s="12">
+        <v>45738</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>

--- a/presupuesto.xlsx
+++ b/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5780E957-8FC6-4197-B638-91C835B220CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3FDF2F-7A5A-4F38-A8AA-AE88A5F0347D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>6 CABLES DUPONT 10CM</t>
+  </si>
+  <si>
+    <t>2 ENCENDEDORES</t>
+  </si>
+  <si>
+    <t>2 ACETONA</t>
+  </si>
+  <si>
+    <t>2 FLIP-FLOP</t>
+  </si>
+  <si>
+    <t>3 DECODERS</t>
   </si>
 </sst>
 </file>
@@ -620,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -879,50 +891,66 @@
       <c r="A26" s="12">
         <v>45738</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <f>SUM(C26:C29)</f>
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <f>SUM(C26:C31)</f>
-        <v>0</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
@@ -946,32 +974,22 @@
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <f>SUM(C31:C37)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3">
-        <f>SUM(C33:C39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="16">
-        <f>C5+C9+C14+C40+C21+C25+C32</f>
-        <v>308.95</v>
+      <c r="C39" s="16">
+        <f>C5+C9+C14+C38+C21+C25+C30</f>
+        <v>389.95</v>
       </c>
     </row>
   </sheetData>
